--- a/src/test/resources/testscriptdata.xlsx
+++ b/src/test/resources/testscriptdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="16215" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="16215" windowHeight="7950" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="SingleData" sheetId="1" r:id="rId1"/>
@@ -204,13 +204,13 @@
     <t>Electronics</t>
   </si>
   <si>
-    <t>ADMIN002</t>
-  </si>
-  <si>
-    <t>ADMIN@002</t>
-  </si>
-  <si>
     <t>Order Tracking Details</t>
+  </si>
+  <si>
+    <t>ADMIN@004</t>
+  </si>
+  <si>
+    <t>ADMIN004</t>
   </si>
 </sst>
 </file>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -616,7 +616,7 @@
         <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -708,7 +708,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testscriptdata.xlsx
+++ b/src/test/resources/testscriptdata.xlsx
@@ -19,13 +19,14 @@
     <sheet name="CreateAccountIdAttr" sheetId="10" r:id="rId10"/>
     <sheet name="ProductAvailabilityDD" sheetId="11" r:id="rId11"/>
     <sheet name="TrackingPage" sheetId="12" r:id="rId12"/>
+    <sheet name="EmailId" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
   <si>
     <t>Organisation</t>
   </si>
@@ -207,10 +208,13 @@
     <t>Order Tracking Details</t>
   </si>
   <si>
-    <t>ADMIN@004</t>
-  </si>
-  <si>
-    <t>ADMIN004</t>
+    <t>ADMIN005</t>
+  </si>
+  <si>
+    <t>ADMIN@</t>
+  </si>
+  <si>
+    <t>Admin@</t>
   </si>
 </sst>
 </file>
@@ -602,7 +606,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -616,7 +620,7 @@
         <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -624,7 +628,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -714,6 +718,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
